--- a/LiveRe/data/specialthanks-afd.xlsx
+++ b/LiveRe/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBAFE9-AE30-4538-B9CC-85BEA725C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B1C69D-D2D7-45EB-988B-C3E1F34DC287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="628">
   <si>
     <t>group</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>shiki</t>
-  </si>
-  <si>
-    <t>小羊</t>
   </si>
   <si>
     <t>狂啸</t>
@@ -968,6 +965,1351 @@
   </si>
   <si>
     <t>风滚草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两只鱼吃蛋挞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般路过的咸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼鱼F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空扛大总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张有点慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有儿孙我享福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世渡劫一半嗝屁者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jerryxu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋头丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨繁星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥撒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云中鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TunaFish2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持枪孤守长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风有绪忆江南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.Nobody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱发电用户_yqdg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看似简单，创意不易。支持原创，走向远方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我年轻的时候，也曾快马加鞭，看尽长安花。一一jx3金主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李笑梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张有点慌吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这不比抽奖好玩？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截杀元婴大佬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加的珠珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上善若水煮汤圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口袋王野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又怎样我同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉末DVD↑↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱加班的中矢建工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukomico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newnigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asillynoob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一世长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪蜀黍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzkrz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多某人lxd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫猫猫毛多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥苍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小崽崽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊氏本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetorain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xingkonghod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzk990929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京林业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沸腾的幻景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是原P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮饭233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haooo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵佳瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿婆朱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油腻的Wink😉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带你嫖娼的馆长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obento</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银子舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大户爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜汁帅气小彩蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌云铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忆丶醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙空间法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛瑙星mnx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有酸萝卜别吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m子会梦见花之暴君吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘云金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天湮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持国产游戏，吾辈义不容辞！————读完本科自称硕士的沙雕的高质量网友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹老板的老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小书童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道我们没有缘分，这也不是我想要的结果，事与愿违，曾经我们都想好好的，即使现在我也是想要跟你好好的，虽然你看不见，但还是想留下这么一句话（可能会有人看到会觉得挺可笑的 确实挺幼稚的）十年的恋情，不希望给你带来生活的压力， 希望你快快乐乐的 这也是我一直给你说的 也是一直希望的—GQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00BFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉心糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幡因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷灯蔷薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众老爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZZZZF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星三西米露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所行皆为何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3AdCa7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温情大白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amomia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾Ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿迟迟迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱布Sa_Official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白猪M82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isarr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候君士坦丁十一世如闪电般归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望大家多多养猫，领养代替购买。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【前排征婚】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我和你一起爱左蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男魔仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏可以无限重开，可惜人生不能——活着吧，活着总比死了强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#99ff99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢肥哥救我狗命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可以的话希望人生重开后还能遇到你们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清影昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散修少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ainavol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不识周树人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坠星灬追月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juvucuc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深秋的七宗罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋漓雨声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废柴呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天林灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱白安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺其自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkanin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳演员路人甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼岸星霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈0421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小糊涂仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬子，不论重生多长次，我都等你回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离淘气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If what you need didn't exist. just create it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩鸿鹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为策划的脑洞和程序的脑细胞+发际线，干杯！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划让我写一句话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧二花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾熙豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮酒醉月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉墨明华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人未尽”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡纸129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMFAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨露微凉暮流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若酷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑绝轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然🥰我的嘉然🥰🥰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔西尔兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbhehe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我永远喜欢阎魔爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achi-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小僵尸是吃了跳跳糖么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxyfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王柯南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIRVANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大刘亦菲Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天边最远的云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路缃笺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜鱼不酸嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-qrj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkkm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceking233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫不负有心人，8小时的执念，转世飞升，修仙之路漫漫，望道友们不要放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝愿游戏越做越好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fish_Bubble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用睡觉的柚子大魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8600FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KYLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孜然酥皮鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiongyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽忽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生生长流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨過の天晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄芥末酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠微凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿三盖饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許諾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤和艾莉欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷酷的内内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinko668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大芋头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日出许愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调De张扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不说不懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊公子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璇瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amisa_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白讫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaginya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注嘉然，顿顿解馋❤️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏可以无数次重来，但人生不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小小小冰冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望文字游戏越做越好 希望策划多多加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drown丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass Brain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wylszy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也不知道我是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜音雪语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是叫hesy好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻网小薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏波poi丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤姆毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f0rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwertyuiop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白勺光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就一傻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉冲鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦香鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YoKan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花有重开日，人无在少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orphankun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望游戏越做越好，Fight！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鱼雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的那么多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜桐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月金小遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qinyilinp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQWQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸢鸣鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽树下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨姆饿了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛合金蚊子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱电用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是潇潇吖❀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千织信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注嘉然，顿顿解馋😋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亖天荫亖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffccff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪拜小泥人</t>
+  </si>
+  <si>
+    <t>各自安好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多支持国产游戏加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialEctic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请让小翼在学会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不吃香菜不订断更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kxu3nive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罡风甚是喧嚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liangbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪莉丨星凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披坚执锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻麓-Cervoserĉo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是scp-114514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼鳃q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星幻Larry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天门仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscar you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤丸嘉人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦絮Sigrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eynaitty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我试着感受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸铜水合物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力的水哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看我真挚的笑容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seka_L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kotoha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达可达可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jjxxa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +2361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,6 +2371,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="C582" sqref="C582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1330,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,10 +2782,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1910,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1934,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +3287,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,7 +3298,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1985,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,7 +3357,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2044,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2076,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2084,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,7 +3453,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2172,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2204,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2212,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,138 +3576,141 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="2" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>2</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>2</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>2</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>2</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>2</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>2</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>2</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>2</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>2</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>2</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>2</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>2</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>2</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,7 +3774,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2434,7 +3782,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2450,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,7 +3822,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2482,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +3881,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2629,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2637,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2699,10 +4047,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2710,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2721,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,7 +4085,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,7 +4093,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2753,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2777,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2841,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2873,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2881,10 +4229,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2892,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +4256,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3028,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3079,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,10 +4435,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3098,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C217" s="2"/>
     </row>
@@ -3107,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3115,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3123,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,7 +4487,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3190,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3198,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3222,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3238,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3262,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3270,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3278,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3286,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,10 +4650,10 @@
         <v>1</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3313,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3321,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3329,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3337,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3345,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3353,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3369,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3377,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3385,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3393,10 +4741,10 @@
         <v>1</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3404,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3412,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3420,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,7 +4776,7 @@
         <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3436,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3444,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3452,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,7 +4819,7 @@
         <v>2</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3479,7 +4827,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3487,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3498,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3506,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3514,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3522,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,7 +4894,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3554,55 +4902,2564 @@
         <v>2</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>2</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>2</v>
-      </c>
-      <c r="B273" s="1" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>2</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>2</v>
-      </c>
-      <c r="B274" s="3" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>2</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>2</v>
-      </c>
-      <c r="B275" s="3" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>2</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>2</v>
-      </c>
-      <c r="B276" s="3" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>2</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>2</v>
-      </c>
-      <c r="B277" s="3" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>2</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>2</v>
-      </c>
-      <c r="B278" s="3" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>2</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>2</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>2</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>2</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>2</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>2</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>2</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>2</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>2</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>2</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>2</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>2</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>2</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>2</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>2</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>2</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>2</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>2</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>1</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>2</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>2</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>2</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>2</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>2</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>2</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>2</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>2</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>2</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>2</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>2</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>2</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>2</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>2</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>2</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>2</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>2</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>2</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>2</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>2</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>2</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>2</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>2</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>2</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>2</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>2</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>2</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>2</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>2</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>2</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>2</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>2</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>2</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>2</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>2</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>2</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>2</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>2</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>2</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>2</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>2</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>2</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>2</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>2</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>2</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>2</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>2</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>2</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>2</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>2</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>2</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>2</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>2</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>2</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>2</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>2</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>2</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>2</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>2</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>2</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>2</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>1</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>2</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>2</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>2</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>2</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>1</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>2</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>2</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>2</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>2</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>2</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>2</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>2</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>2</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>2</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>2</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>2</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>2</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>2</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>2</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>2</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>1</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>2</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>2</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>2</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>2</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>2</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>1</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>2</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>2</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>1</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>2</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>2</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>2</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>1</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>2</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>2</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>2</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>2</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>2</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>2</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>2</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>2</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>2</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>2</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>2</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>2</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>2</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>2</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>2</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>2</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>2</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>2</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>2</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>2</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>2</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>2</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>1</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>2</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>2</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>2</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>2</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>2</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>2</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>2</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>1</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>1</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>2</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>2</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>2</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>2</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>2</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>2</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>2</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>2</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>2</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>2</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>2</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>2</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>2</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>2</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>2</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>2</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>2</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>2</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>2</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>1</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>2</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>2</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>2</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>2</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>2</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>2</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>2</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>2</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>2</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>2</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>2</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>1</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>2</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>2</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>2</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>2</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>2</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>2</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>2</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>2</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>2</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>2</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>2</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>1</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>2</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>2</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>2</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>2</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>2</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>2</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>2</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>2</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>2</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>2</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>2</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>2</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>2</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>2</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>2</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>2</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>2</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>2</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>2</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>2</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>2</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>2</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>2</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>2</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>2</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>2</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>2</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>2</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>2</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>2</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>2</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>2</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>2</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>2</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>2</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>2</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>2</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>2</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>1</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>2</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>2</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>2</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>2</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>2</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>2</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>2</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>2</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>2</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>2</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>2</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>2</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>2</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>2</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>2</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>2</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>2</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>2</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>2</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>2</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>2</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>2</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>2</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>2</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>2</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>2</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>2</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>2</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>2</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>2</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>2</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>2</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>2</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>2</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
